--- a/Supplementary Files/Supplementary_File_S6.xlsx
+++ b/Supplementary Files/Supplementary_File_S6.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Time" sheetId="7" r:id="rId1"/>
+    <sheet name="C.Memory" sheetId="7" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -681,7 +681,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -749,8 +749,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1100,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1115,22 +1121,24 @@
     <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
@@ -1156,7 +1164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1181,8 +1189,10 @@
       <c r="H4" s="20">
         <v>106.16</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1207,8 +1217,10 @@
       <c r="H5" s="20">
         <v>170.58</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K5" s="26"/>
+      <c r="L5" s="15"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -1233,8 +1245,10 @@
       <c r="H6" s="20">
         <v>281.63</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K6" s="26"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1259,8 +1273,9 @@
       <c r="H7" s="20">
         <v>227.65</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L7" s="27"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1285,8 +1300,9 @@
       <c r="H8" s="20">
         <v>366.75</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1311,8 +1327,10 @@
       <c r="H9" s="20">
         <v>829.21</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1337,8 +1355,9 @@
       <c r="H10" s="20">
         <v>821.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L10" s="26"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1364,7 +1383,7 @@
         <v>1382.19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1390,7 +1409,7 @@
         <v>1448.54</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -1416,12 +1435,12 @@
         <v>3414.28</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="7">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="C14" s="8">
         <v>1774</v>
@@ -1439,10 +1458,10 @@
         <v>3625</v>
       </c>
       <c r="H14" s="24">
-        <v>3414.28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3414</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -1452,7 +1471,7 @@
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>19</v>
       </c>
@@ -1549,13 +1568,13 @@
         <v>43</v>
       </c>
       <c r="B19" s="7">
-        <v>1.893</v>
+        <v>2</v>
       </c>
       <c r="C19" s="8">
         <v>1873</v>
       </c>
       <c r="D19" s="24">
-        <v>2135</v>
+        <v>8426</v>
       </c>
       <c r="E19" s="24">
         <v>2312</v>
@@ -1624,10 +1643,9 @@
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="15"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="15"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="3"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -1650,10 +1668,9 @@
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="15"/>
       <c r="K23" s="3"/>
       <c r="L23" s="15"/>
+      <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -1676,10 +1693,9 @@
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="2"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="25"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="3"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -1702,10 +1718,8 @@
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="21"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="3"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
@@ -1728,10 +1742,9 @@
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="21"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="3"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
@@ -1999,26 +2012,33 @@
         <v>7092</v>
       </c>
       <c r="D37" s="18">
-        <v>3451.2</v>
+        <v>3451</v>
       </c>
       <c r="E37" s="16">
         <v>3399</v>
       </c>
       <c r="F37" s="19">
-        <v>3235.88</v>
+        <v>3236</v>
       </c>
       <c r="G37" s="13"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="27" t="s">
+      <c r="A39" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
